--- a/csenergy/temp/propiedades fluidos.xlsx
+++ b/csenergy/temp/propiedades fluidos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0-SINC\0 - TFG\clon_csenergy-python\csenergy\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB\0-SINC\0 - TFG\clon_csenergy-python\csenergy\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926972EA-CD0D-43AE-A010-A8C30F9FE1FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11760" tabRatio="761" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="761" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM" sheetId="2" r:id="rId1"/>
@@ -141,7 +142,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,7 +363,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -477,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,18 +555,23 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +590,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -598,7 +604,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -797,7 +802,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B2AD-45ED-8EF2-70D743C4720D}"/>
             </c:ext>
@@ -952,7 +957,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-B2AD-45ED-8EF2-70D743C4720D}"/>
             </c:ext>
@@ -1103,7 +1108,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1171,7 +1175,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1185,7 +1189,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1561,7 +1564,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -1748,7 +1751,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1762,7 +1765,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2150,7 +2152,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -2337,7 +2339,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -2734,7 +2736,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -2921,7 +2923,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3318,7 +3320,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -3505,7 +3507,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3519,7 +3521,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3895,7 +3896,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -4082,7 +4083,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4096,7 +4097,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4482,7 +4482,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9384-4002-9A08-E501055A9A39}"/>
             </c:ext>
@@ -4669,7 +4669,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5040,7 +5040,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -5230,7 +5230,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5C7C-4CB4-9A5D-3E75F8FFB817}"/>
             </c:ext>
@@ -5417,7 +5417,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5623,7 +5623,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D052-4898-AE90-E99A91F99C96}"/>
             </c:ext>
@@ -5810,7 +5810,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6199,7 +6199,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F77E-46CD-8BEF-96627C5CBC17}"/>
             </c:ext>
@@ -6386,7 +6386,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6622,7 +6622,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F29F-4F5A-8EDB-2A80611241CF}"/>
             </c:ext>
@@ -6809,7 +6809,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6823,7 +6823,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7199,7 +7198,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -7386,7 +7385,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -7604,7 +7603,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F29F-4F5A-8EDB-2A80611241CF}"/>
             </c:ext>
@@ -7791,7 +7790,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8189,7 +8188,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F29F-4F5A-8EDB-2A80611241CF}"/>
             </c:ext>
@@ -8376,7 +8375,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8766,7 +8765,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1AE8-49E0-9C5A-2BC88FB8679F}"/>
             </c:ext>
@@ -8953,7 +8952,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -8967,7 +8966,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9215,7 +9213,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-270D-4994-8D87-ECC9A4D533B8}"/>
             </c:ext>
@@ -9366,7 +9364,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9434,7 +9431,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -9823,7 +9820,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E943-4CA4-B86E-D2BA40729582}"/>
             </c:ext>
@@ -10010,7 +10007,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -10024,7 +10021,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10400,7 +10396,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D052-4898-AE90-E99A91F99C96}"/>
             </c:ext>
@@ -10587,7 +10583,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -10601,7 +10597,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10977,7 +10972,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -11164,7 +11159,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -11178,7 +11173,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11566,7 +11560,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -11753,7 +11747,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -12020,6 +12014,12 @@
                 <c:pt idx="38">
                   <c:v>668</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>688</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -12150,7 +12150,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -12337,7 +12337,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -12734,7 +12734,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -12921,7 +12921,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -12935,7 +12935,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13311,7 +13310,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-39B3-4A29-AB0F-C79C1FF95658}"/>
             </c:ext>
@@ -13498,7 +13497,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -13512,7 +13511,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13898,7 +13896,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7F83-40F2-B1B0-ECA993F823B9}"/>
             </c:ext>
@@ -27448,7 +27446,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27489,7 +27487,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27532,7 +27530,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27575,7 +27573,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27613,7 +27611,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27656,7 +27654,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27694,7 +27692,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27737,7 +27735,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27780,7 +27778,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27816,7 +27814,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27854,7 +27852,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27897,7 +27895,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27940,7 +27938,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -27981,7 +27979,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28024,7 +28022,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28062,7 +28060,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28105,7 +28103,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28148,7 +28146,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28191,7 +28189,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28234,7 +28232,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28277,7 +28275,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28315,7 +28313,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28358,7 +28356,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28401,7 +28399,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -28686,16 +28684,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -28703,7 +28701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -28716,7 +28714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -28729,7 +28727,7 @@
         <v>0.98946972100000008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -28742,7 +28740,7 @@
         <v>0.96925807599999991</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
@@ -28755,7 +28753,7 @@
         <v>0.94100250100000005</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>40</v>
       </c>
@@ -28768,7 +28766,7 @@
         <v>0.89468821599999993</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -28781,7 +28779,7 @@
         <v>0.808648225</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60</v>
       </c>
@@ -28794,7 +28792,7 @@
         <v>0.64956331599999995</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>70</v>
       </c>
@@ -28807,7 +28805,7 @@
         <v>0.37246206099999979</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>80</v>
       </c>
@@ -28827,23 +28825,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -28860,7 +28858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -28880,7 +28878,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -28900,7 +28898,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -28920,7 +28918,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -28940,7 +28938,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -28960,7 +28958,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -28980,7 +28978,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -29000,7 +28998,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -29020,7 +29018,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -29040,7 +29038,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -29060,7 +29058,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -29080,7 +29078,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -29103,7 +29101,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -29123,7 +29121,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -29143,7 +29141,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -29163,7 +29161,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -29183,7 +29181,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -29203,7 +29201,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -29223,7 +29221,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -29243,7 +29241,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -29263,7 +29261,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -29283,7 +29281,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -29303,7 +29301,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -29323,7 +29321,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -29343,7 +29341,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -29363,7 +29361,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -29383,7 +29381,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -29403,7 +29401,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -29423,7 +29421,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -29443,7 +29441,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -29463,7 +29461,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -29483,7 +29481,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -29503,7 +29501,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -29523,7 +29521,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -29543,7 +29541,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -29563,7 +29561,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -29583,7 +29581,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -29603,7 +29601,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -29623,7 +29621,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -29643,12 +29641,12 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
       <c r="D42" s="12"/>
       <c r="E42" s="24"/>
@@ -29660,23 +29658,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -29693,7 +29691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>288</v>
       </c>
@@ -29713,7 +29711,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>298</v>
       </c>
@@ -29733,7 +29731,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>308</v>
       </c>
@@ -29753,7 +29751,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>318</v>
       </c>
@@ -29773,7 +29771,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>328</v>
       </c>
@@ -29793,7 +29791,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>338</v>
       </c>
@@ -29813,7 +29811,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>348</v>
       </c>
@@ -29833,7 +29831,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>358</v>
       </c>
@@ -29853,7 +29851,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>368</v>
       </c>
@@ -29873,7 +29871,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>378</v>
       </c>
@@ -29893,7 +29891,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>388</v>
       </c>
@@ -29913,7 +29911,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>398</v>
       </c>
@@ -29936,7 +29934,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>408</v>
       </c>
@@ -29956,7 +29954,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>418</v>
       </c>
@@ -29976,7 +29974,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>428</v>
       </c>
@@ -29996,7 +29994,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>438</v>
       </c>
@@ -30016,7 +30014,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>448</v>
       </c>
@@ -30036,7 +30034,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>458</v>
       </c>
@@ -30056,7 +30054,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>468</v>
       </c>
@@ -30076,7 +30074,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>478</v>
       </c>
@@ -30096,7 +30094,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>488</v>
       </c>
@@ -30116,7 +30114,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>498</v>
       </c>
@@ -30136,7 +30134,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>508</v>
       </c>
@@ -30156,7 +30154,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>518</v>
       </c>
@@ -30176,7 +30174,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>528</v>
       </c>
@@ -30196,7 +30194,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>538</v>
       </c>
@@ -30216,7 +30214,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>548</v>
       </c>
@@ -30236,7 +30234,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>558</v>
       </c>
@@ -30256,7 +30254,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>568</v>
       </c>
@@ -30276,7 +30274,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>578</v>
       </c>
@@ -30296,7 +30294,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>588</v>
       </c>
@@ -30316,7 +30314,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>598</v>
       </c>
@@ -30336,7 +30334,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>608</v>
       </c>
@@ -30356,7 +30354,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>618</v>
       </c>
@@ -30376,7 +30374,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>628</v>
       </c>
@@ -30396,7 +30394,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>638</v>
       </c>
@@ -30416,7 +30414,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>648</v>
       </c>
@@ -30436,7 +30434,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>658</v>
       </c>
@@ -30456,7 +30454,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>668</v>
       </c>
@@ -30476,12 +30474,12 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
       <c r="D42" s="12"/>
       <c r="E42" s="24"/>
@@ -30493,25 +30491,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -30540,7 +30538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>286</v>
       </c>
@@ -30582,7 +30580,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>296</v>
       </c>
@@ -30617,7 +30615,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>306</v>
       </c>
@@ -30652,7 +30650,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>316</v>
       </c>
@@ -30687,7 +30685,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>326</v>
       </c>
@@ -30722,7 +30720,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>336</v>
       </c>
@@ -30757,7 +30755,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>346</v>
       </c>
@@ -30792,7 +30790,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>356</v>
       </c>
@@ -30827,7 +30825,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>366</v>
       </c>
@@ -30862,7 +30860,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>376</v>
       </c>
@@ -30897,7 +30895,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>386</v>
       </c>
@@ -30932,7 +30930,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>396</v>
       </c>
@@ -30967,7 +30965,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>406</v>
       </c>
@@ -31002,7 +31000,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>416</v>
       </c>
@@ -31037,7 +31035,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>426</v>
       </c>
@@ -31072,7 +31070,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>436</v>
       </c>
@@ -31107,7 +31105,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>446</v>
       </c>
@@ -31142,7 +31140,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>456</v>
       </c>
@@ -31177,7 +31175,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>466</v>
       </c>
@@ -31212,7 +31210,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>476</v>
       </c>
@@ -31247,7 +31245,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>486</v>
       </c>
@@ -31282,7 +31280,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>496</v>
       </c>
@@ -31317,7 +31315,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>506</v>
       </c>
@@ -31352,7 +31350,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>516</v>
       </c>
@@ -31387,7 +31385,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>526</v>
       </c>
@@ -31422,7 +31420,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>536</v>
       </c>
@@ -31457,7 +31455,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>546</v>
       </c>
@@ -31492,7 +31490,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>556</v>
       </c>
@@ -31527,7 +31525,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>566</v>
       </c>
@@ -31562,7 +31560,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>576</v>
       </c>
@@ -31597,7 +31595,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>586</v>
       </c>
@@ -31632,7 +31630,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>596</v>
       </c>
@@ -31667,7 +31665,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>606</v>
       </c>
@@ -31702,7 +31700,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>616</v>
       </c>
@@ -31737,7 +31735,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>626</v>
       </c>
@@ -31772,7 +31770,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>636</v>
       </c>
@@ -31807,7 +31805,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>646</v>
       </c>
@@ -31842,7 +31840,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>656</v>
       </c>
@@ -31877,7 +31875,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>666</v>
       </c>
@@ -31919,25 +31917,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" customWidth="1"/>
-    <col min="10" max="10" width="23.1796875" customWidth="1"/>
-    <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>25</v>
       </c>
@@ -31956,7 +31954,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>288</v>
       </c>
@@ -31988,7 +31986,7 @@
       </c>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>298</v>
       </c>
@@ -32020,7 +32018,7 @@
       </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>308</v>
       </c>
@@ -32052,7 +32050,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>318</v>
       </c>
@@ -32082,7 +32080,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>328</v>
       </c>
@@ -32112,7 +32110,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>338</v>
       </c>
@@ -32142,7 +32140,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>348</v>
       </c>
@@ -32172,7 +32170,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>358</v>
       </c>
@@ -32202,7 +32200,7 @@
       </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>368</v>
       </c>
@@ -32232,7 +32230,7 @@
       </c>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>378</v>
       </c>
@@ -32246,18 +32244,18 @@
       </c>
       <c r="D11" s="15"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="32">
         <f t="shared" si="1"/>
         <v>8.2054792367941554E-4</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>388</v>
       </c>
@@ -32277,7 +32275,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>398</v>
       </c>
@@ -32297,7 +32295,7 @@
       </c>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>408</v>
       </c>
@@ -32317,7 +32315,7 @@
       </c>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>418</v>
       </c>
@@ -32337,7 +32335,7 @@
       </c>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>428</v>
       </c>
@@ -32357,7 +32355,7 @@
       </c>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>438</v>
       </c>
@@ -32377,7 +32375,7 @@
       </c>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>448</v>
       </c>
@@ -32397,7 +32395,7 @@
       </c>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>458</v>
       </c>
@@ -32417,7 +32415,7 @@
       </c>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>468</v>
       </c>
@@ -32437,7 +32435,7 @@
       </c>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>478</v>
       </c>
@@ -32457,7 +32455,7 @@
       </c>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>488</v>
       </c>
@@ -32477,7 +32475,7 @@
       </c>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>498</v>
       </c>
@@ -32497,7 +32495,7 @@
       </c>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>508</v>
       </c>
@@ -32517,7 +32515,7 @@
       </c>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>518</v>
       </c>
@@ -32537,7 +32535,7 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>528</v>
       </c>
@@ -32557,7 +32555,7 @@
       </c>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>538</v>
       </c>
@@ -32577,7 +32575,7 @@
       </c>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>548</v>
       </c>
@@ -32597,7 +32595,7 @@
       </c>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>558</v>
       </c>
@@ -32617,7 +32615,7 @@
       </c>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>568</v>
       </c>
@@ -32637,7 +32635,7 @@
       </c>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>578</v>
       </c>
@@ -32657,7 +32655,7 @@
       </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>588</v>
       </c>
@@ -32677,7 +32675,7 @@
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>598</v>
       </c>
@@ -32697,7 +32695,7 @@
       </c>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>608</v>
       </c>
@@ -32717,7 +32715,7 @@
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>618</v>
       </c>
@@ -32737,7 +32735,7 @@
       </c>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>628</v>
       </c>
@@ -32757,7 +32755,7 @@
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>638</v>
       </c>
@@ -32777,7 +32775,7 @@
       </c>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>648</v>
       </c>
@@ -32797,7 +32795,7 @@
       </c>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>658</v>
       </c>
@@ -32817,7 +32815,7 @@
       </c>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>668</v>
       </c>
@@ -32837,7 +32835,7 @@
       </c>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>658</v>
       </c>
@@ -32852,7 +32850,7 @@
         <v>2.2141147455129184E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>668</v>
       </c>
@@ -32877,26 +32875,26 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -32909,7 +32907,7 @@
       <c r="D1" s="15"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -32926,7 +32924,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -32960,7 +32958,7 @@
         <v>1.9790000000000001E-10</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -32977,7 +32975,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -32994,7 +32992,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -33028,7 +33026,7 @@
         <v>1.9790000000000001E-10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -33045,7 +33043,7 @@
       </c>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -33062,7 +33060,7 @@
       </c>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -33079,7 +33077,7 @@
       </c>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -33096,7 +33094,7 @@
       </c>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -33113,7 +33111,7 @@
       </c>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -33130,7 +33128,7 @@
       </c>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -33147,7 +33145,7 @@
       </c>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -33164,7 +33162,7 @@
       </c>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -33181,7 +33179,7 @@
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -33198,7 +33196,7 @@
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -33215,7 +33213,7 @@
       </c>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -33232,7 +33230,7 @@
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -33249,7 +33247,7 @@
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -33266,7 +33264,7 @@
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -33283,7 +33281,7 @@
       </c>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -33300,7 +33298,7 @@
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -33317,7 +33315,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -33334,7 +33332,7 @@
       </c>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -33351,7 +33349,7 @@
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -33368,7 +33366,7 @@
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -33385,7 +33383,7 @@
       </c>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -33402,7 +33400,7 @@
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -33419,7 +33417,7 @@
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -33436,7 +33434,7 @@
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -33453,7 +33451,7 @@
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -33470,7 +33468,7 @@
       </c>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -33487,7 +33485,7 @@
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -33504,7 +33502,7 @@
       </c>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -33521,7 +33519,7 @@
       </c>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -33538,7 +33536,7 @@
       </c>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -33555,7 +33553,7 @@
       </c>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -33572,7 +33570,7 @@
       </c>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -33589,7 +33587,7 @@
       </c>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -33606,67 +33604,67 @@
       </c>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O41" s="23"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O61" s="5"/>
     </row>
   </sheetData>
@@ -33676,23 +33674,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
-    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -33712,7 +33710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>-40</v>
       </c>
@@ -33735,7 +33733,7 @@
       <c r="P2" s="6"/>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>0</v>
       </c>
@@ -33764,7 +33762,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>40</v>
       </c>
@@ -33786,7 +33784,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>80</v>
       </c>
@@ -33808,7 +33806,7 @@
       </c>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>120</v>
       </c>
@@ -33830,7 +33828,7 @@
       </c>
       <c r="S6" s="8"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>160</v>
       </c>
@@ -33852,7 +33850,7 @@
       </c>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>200</v>
       </c>
@@ -33874,7 +33872,7 @@
       </c>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>240</v>
       </c>
@@ -33896,7 +33894,7 @@
       </c>
       <c r="S9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>280</v>
       </c>
@@ -33918,7 +33916,7 @@
       </c>
       <c r="S10" s="8"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>320</v>
       </c>
@@ -33940,7 +33938,7 @@
       </c>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>360</v>
       </c>
@@ -33962,7 +33960,7 @@
       </c>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>400</v>
       </c>
@@ -33984,27 +33982,27 @@
       </c>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G14" s="5"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G15" s="5"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G16" s="5"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G18" s="5"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
@@ -34017,7 +34015,7 @@
       <c r="G19" s="5"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <f>B20-273.15</f>
         <v>15</v>
@@ -34032,7 +34030,7 @@
       <c r="G20" s="5"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" ref="A21:A31" si="1">B21-273.15</f>
         <v>400</v>
@@ -34047,7 +34045,7 @@
       <c r="G21" s="5"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="15" t="s">
         <v>0</v>
@@ -34056,7 +34054,7 @@
       <c r="G22" s="5"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -34069,7 +34067,7 @@
       </c>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -34082,7 +34080,7 @@
       </c>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -34095,7 +34093,7 @@
       </c>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>155</v>
@@ -34108,7 +34106,7 @@
       </c>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>205</v>
@@ -34121,7 +34119,7 @@
       </c>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>255</v>
@@ -34134,7 +34132,7 @@
       </c>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <f t="shared" si="1"/>
         <v>305</v>
@@ -34147,7 +34145,7 @@
       </c>
       <c r="S29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <f t="shared" si="1"/>
         <v>355</v>
@@ -34160,7 +34158,7 @@
       </c>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <f t="shared" si="1"/>
         <v>405</v>
@@ -34173,28 +34171,28 @@
       </c>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>1108.492</v>
       </c>
@@ -34206,7 +34204,7 @@
       </c>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>25</v>
       </c>
@@ -34221,7 +34219,7 @@
       </c>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <f>B41-273.15</f>
         <v>14.850000000000023</v>
@@ -34238,7 +34236,7 @@
       </c>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f t="shared" ref="A42:A79" si="3">B42-273.15</f>
         <v>24.850000000000023</v>
@@ -34254,7 +34252,7 @@
         <v>1617.0289999998777</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <f t="shared" si="3"/>
         <v>34.850000000000023</v>
@@ -34270,7 +34268,7 @@
         <v>1634.0939999998777</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <f t="shared" si="3"/>
         <v>44.850000000000023</v>
@@ -34286,7 +34284,7 @@
         <v>1651.1589999998776</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <f t="shared" si="3"/>
         <v>54.850000000000023</v>
@@ -34302,7 +34300,7 @@
         <v>1668.2239999998776</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <f t="shared" si="3"/>
         <v>64.850000000000023</v>
@@ -34318,7 +34316,7 @@
         <v>1685.2889999998774</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <f t="shared" si="3"/>
         <v>74.850000000000023</v>
@@ -34334,7 +34332,7 @@
         <v>1702.3539999998775</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <f t="shared" si="3"/>
         <v>84.850000000000023</v>
@@ -34350,7 +34348,7 @@
         <v>1719.4189999998775</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <f t="shared" si="3"/>
         <v>94.850000000000023</v>
@@ -34366,7 +34364,7 @@
         <v>1736.4839999998776</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <f t="shared" si="3"/>
         <v>104.85000000000002</v>
@@ -34382,7 +34380,7 @@
         <v>1753.5489999998777</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <f t="shared" si="3"/>
         <v>114.85000000000002</v>
@@ -34398,7 +34396,7 @@
         <v>1770.6139999998777</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <f t="shared" si="3"/>
         <v>124.85000000000002</v>
@@ -34414,7 +34412,7 @@
         <v>1787.6789999998778</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <f t="shared" si="3"/>
         <v>134.85000000000002</v>
@@ -34430,7 +34428,7 @@
         <v>1804.7439999998776</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <f t="shared" si="3"/>
         <v>144.85000000000002</v>
@@ -34446,7 +34444,7 @@
         <v>1821.8089999998776</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <f t="shared" si="3"/>
         <v>154.85000000000002</v>
@@ -34462,7 +34460,7 @@
         <v>1838.8739999998775</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f t="shared" si="3"/>
         <v>164.85000000000002</v>
@@ -34478,7 +34476,7 @@
         <v>1855.9389999998775</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <f t="shared" si="3"/>
         <v>174.85000000000002</v>
@@ -34494,7 +34492,7 @@
         <v>1873.0039999998776</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <f t="shared" si="3"/>
         <v>184.85000000000002</v>
@@ -34510,7 +34508,7 @@
         <v>1890.0689999998776</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <f t="shared" si="3"/>
         <v>194.85000000000002</v>
@@ -34526,7 +34524,7 @@
         <v>1907.1339999998777</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <f t="shared" si="3"/>
         <v>204.85000000000002</v>
@@ -34542,7 +34540,7 @@
         <v>1924.1989999998777</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <f t="shared" si="3"/>
         <v>214.85000000000002</v>
@@ -34558,7 +34556,7 @@
         <v>1941.2639999998776</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <f t="shared" si="3"/>
         <v>224.85000000000002</v>
@@ -34574,7 +34572,7 @@
         <v>1958.3289999998776</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <f t="shared" si="3"/>
         <v>234.85000000000002</v>
@@ -34590,7 +34588,7 @@
         <v>1975.3939999998775</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <f t="shared" si="3"/>
         <v>244.85000000000002</v>
@@ -34606,7 +34604,7 @@
         <v>1992.4589999998775</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <f t="shared" si="3"/>
         <v>254.85000000000002</v>
@@ -34622,7 +34620,7 @@
         <v>2009.5239999998776</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <f t="shared" si="3"/>
         <v>264.85000000000002</v>
@@ -34638,7 +34636,7 @@
         <v>2026.5889999998776</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <f t="shared" si="3"/>
         <v>274.85000000000002</v>
@@ -34654,7 +34652,7 @@
         <v>2043.6539999998777</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <f t="shared" si="3"/>
         <v>284.85000000000002</v>
@@ -34670,7 +34668,7 @@
         <v>2060.7189999998777</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <f t="shared" si="3"/>
         <v>294.85000000000002</v>
@@ -34686,7 +34684,7 @@
         <v>2077.7839999998773</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <f t="shared" si="3"/>
         <v>304.85000000000002</v>
@@ -34702,7 +34700,7 @@
         <v>2094.8489999998778</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <f t="shared" si="3"/>
         <v>314.85000000000002</v>
@@ -34718,7 +34716,7 @@
         <v>2111.9139999998774</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <f t="shared" si="3"/>
         <v>324.85000000000002</v>
@@ -34734,7 +34732,7 @@
         <v>2128.9789999998775</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <f t="shared" si="3"/>
         <v>334.85</v>
@@ -34750,7 +34748,7 @@
         <v>2146.0439999998775</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <f t="shared" si="3"/>
         <v>344.85</v>
@@ -34766,7 +34764,7 @@
         <v>2163.1089999998776</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <f t="shared" si="3"/>
         <v>354.85</v>
@@ -34782,7 +34780,7 @@
         <v>2180.1739999998777</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <f t="shared" si="3"/>
         <v>364.85</v>
@@ -34798,7 +34796,7 @@
         <v>2197.2389999998773</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <f t="shared" si="3"/>
         <v>374.85</v>
@@ -34814,7 +34812,7 @@
         <v>2214.3039999998778</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <f t="shared" si="3"/>
         <v>384.85</v>
@@ -34830,7 +34828,7 @@
         <v>2231.3689999998774</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="3"/>
         <v>394.85</v>
@@ -34853,21 +34851,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -34908,7 +34906,7 @@
         <v>1.275E-21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <f>C2-273.15</f>
         <v>14.850000000000023</v>
@@ -34948,7 +34946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f t="shared" ref="A3:A42" si="0">C3-273.15</f>
         <v>24.850000000000023</v>
@@ -34961,7 +34959,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <f t="shared" si="0"/>
         <v>34.850000000000023</v>
@@ -34974,7 +34972,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <f t="shared" si="0"/>
         <v>44.850000000000023</v>
@@ -34987,7 +34985,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <f t="shared" si="0"/>
         <v>54.850000000000023</v>
@@ -35000,7 +34998,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f t="shared" si="0"/>
         <v>64.850000000000023</v>
@@ -35013,7 +35011,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f t="shared" si="0"/>
         <v>74.850000000000023</v>
@@ -35026,7 +35024,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>84.850000000000023</v>
@@ -35039,7 +35037,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>94.850000000000023</v>
@@ -35052,7 +35050,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>104.85000000000002</v>
@@ -35065,7 +35063,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>114.85000000000002</v>
@@ -35078,7 +35076,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>124.85000000000002</v>
@@ -35091,7 +35089,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>134.85000000000002</v>
@@ -35104,7 +35102,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>144.85000000000002</v>
@@ -35117,7 +35115,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>154.85000000000002</v>
@@ -35130,7 +35128,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>164.85000000000002</v>
@@ -35143,7 +35141,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>174.85000000000002</v>
@@ -35156,7 +35154,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>184.85000000000002</v>
@@ -35169,7 +35167,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>194.85000000000002</v>
@@ -35182,7 +35180,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>204.85000000000002</v>
@@ -35195,7 +35193,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>214.85000000000002</v>
@@ -35208,7 +35206,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>224.85000000000002</v>
@@ -35221,7 +35219,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>234.85000000000002</v>
@@ -35234,7 +35232,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>244.85000000000002</v>
@@ -35247,7 +35245,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>254.85000000000002</v>
@@ -35260,7 +35258,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>264.85000000000002</v>
@@ -35273,7 +35271,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>274.85000000000002</v>
@@ -35286,7 +35284,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>284.85000000000002</v>
@@ -35299,7 +35297,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>294.85000000000002</v>
@@ -35312,7 +35310,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>304.85000000000002</v>
@@ -35325,7 +35323,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>314.85000000000002</v>
@@ -35338,7 +35336,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>324.85000000000002</v>
@@ -35351,7 +35349,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>334.85</v>
@@ -35364,7 +35362,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>344.85</v>
@@ -35377,7 +35375,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>354.85</v>
@@ -35390,7 +35388,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>364.85</v>
@@ -35403,7 +35401,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>374.85</v>
@@ -35416,7 +35414,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>384.85</v>
@@ -35429,7 +35427,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>394.85</v>
@@ -35442,7 +35440,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>384.85</v>
@@ -35455,7 +35453,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>394.85</v>
@@ -35475,25 +35473,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.453125" style="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -35501,12 +35499,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -35517,7 +35515,7 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -35528,12 +35526,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -35553,7 +35551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
@@ -35582,7 +35580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>-30</v>
       </c>
@@ -35623,7 +35621,7 @@
         <v>0.73285759011249529</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>-20</v>
       </c>
@@ -35664,7 +35662,7 @@
         <v>0.74480753099376695</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>-10</v>
       </c>
@@ -35705,7 +35703,7 @@
         <v>0.75473942222046619</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -35746,7 +35744,7 @@
         <v>0.76870226989458734</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -35787,7 +35785,7 @@
         <v>0.78057915801656153</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>20</v>
       </c>
@@ -35828,7 +35826,7 @@
         <v>0.79062923374821459</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>30</v>
       </c>
@@ -35869,7 +35867,7 @@
         <v>0.79907463569812709</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40</v>
       </c>
@@ -35910,7 +35908,7 @@
         <v>0.80610666099349193</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>50</v>
       </c>
@@ -35951,7 +35949,7 @@
         <v>0.81645193703395447</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>60</v>
       </c>
@@ -35992,7 +35990,7 @@
         <v>0.82530393875668862</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>70</v>
       </c>
@@ -36033,7 +36031,7 @@
         <v>0.83282645652413356</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>80</v>
       </c>
@@ -36074,7 +36072,7 @@
         <v>0.83916292377838386</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>90</v>
       </c>
@@ -36115,7 +36113,7 @@
         <v>0.8444393577292405</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>100</v>
       </c>
@@ -36156,7 +36154,7 @@
         <v>0.85247321777108598</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>200</v>
       </c>
@@ -36197,7 +36195,7 @@
         <v>0.89856562357294156</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>300</v>
       </c>
@@ -36238,7 +36236,7 @@
         <v>0.92153378491873272</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>29</v>
       </c>
@@ -36250,22 +36248,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -36278,7 +36276,7 @@
       <c r="D1" s="15"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -36295,7 +36293,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -36329,7 +36327,7 @@
         <v>-1.622E-11</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -36346,7 +36344,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -36363,7 +36361,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -36381,7 +36379,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -36398,7 +36396,7 @@
       </c>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -36415,7 +36413,7 @@
       </c>
       <c r="O8" s="23"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -36432,7 +36430,7 @@
       </c>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -36449,7 +36447,7 @@
       </c>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -36466,7 +36464,7 @@
       </c>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -36483,7 +36481,7 @@
       </c>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -36500,7 +36498,7 @@
       </c>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -36517,7 +36515,7 @@
       </c>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -36534,7 +36532,7 @@
       </c>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -36551,7 +36549,7 @@
       </c>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -36568,7 +36566,7 @@
       </c>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -36585,7 +36583,7 @@
       </c>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -36602,7 +36600,7 @@
       </c>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -36619,7 +36617,7 @@
       </c>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -36636,7 +36634,7 @@
       </c>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -36653,7 +36651,7 @@
       </c>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -36670,7 +36668,7 @@
       </c>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -36687,7 +36685,7 @@
       </c>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -36704,7 +36702,7 @@
       </c>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -36721,7 +36719,7 @@
       </c>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -36738,7 +36736,7 @@
       </c>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -36755,7 +36753,7 @@
       </c>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -36772,7 +36770,7 @@
       </c>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -36789,7 +36787,7 @@
       </c>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -36806,7 +36804,7 @@
       </c>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -36823,7 +36821,7 @@
       </c>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -36840,7 +36838,7 @@
       </c>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -36857,7 +36855,7 @@
       </c>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -36874,7 +36872,7 @@
       </c>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -36891,7 +36889,7 @@
       </c>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -36908,7 +36906,7 @@
       </c>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -36925,7 +36923,7 @@
       </c>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -36942,7 +36940,7 @@
       </c>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -36959,67 +36957,67 @@
       </c>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O41" s="23"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O42" s="23"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O43" s="23"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O44" s="23"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O45" s="23"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O52" s="5"/>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O53" s="5"/>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O54" s="5"/>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O55" s="5"/>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O56" s="5"/>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O57" s="5"/>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O58" s="5"/>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O59" s="5"/>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O60" s="5"/>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O61" s="5"/>
     </row>
   </sheetData>
@@ -37029,22 +37027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -37058,7 +37056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>286</v>
       </c>
@@ -37080,7 +37078,7 @@
         <v>-5.8342295233160257E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>296</v>
       </c>
@@ -37096,7 +37094,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>306</v>
       </c>
@@ -37117,7 +37115,7 @@
         <v>286.15826960426</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>316</v>
       </c>
@@ -37138,7 +37136,7 @@
         <v>285.98182658753598</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>326</v>
       </c>
@@ -37159,7 +37157,7 @@
         <v>285.42898904592198</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>336</v>
       </c>
@@ -37178,7 +37176,7 @@
         <v>285.85636174590599</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>346</v>
       </c>
@@ -37194,7 +37192,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>356</v>
       </c>
@@ -37210,7 +37208,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>366</v>
       </c>
@@ -37226,7 +37224,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>376</v>
       </c>
@@ -37242,7 +37240,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>386</v>
       </c>
@@ -37258,7 +37256,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>396</v>
       </c>
@@ -37274,7 +37272,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>406</v>
       </c>
@@ -37290,7 +37288,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>416</v>
       </c>
@@ -37306,7 +37304,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>426</v>
       </c>
@@ -37322,7 +37320,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>436</v>
       </c>
@@ -37338,7 +37336,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>446</v>
       </c>
@@ -37354,7 +37352,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>456</v>
       </c>
@@ -37370,7 +37368,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>466</v>
       </c>
@@ -37386,7 +37384,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>476</v>
       </c>
@@ -37402,7 +37400,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>486</v>
       </c>
@@ -37418,7 +37416,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>496</v>
       </c>
@@ -37434,7 +37432,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>506</v>
       </c>
@@ -37450,7 +37448,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>516</v>
       </c>
@@ -37466,7 +37464,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>526</v>
       </c>
@@ -37482,7 +37480,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>536</v>
       </c>
@@ -37498,7 +37496,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>546</v>
       </c>
@@ -37514,7 +37512,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>556</v>
       </c>
@@ -37530,7 +37528,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>566</v>
       </c>
@@ -37546,7 +37544,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>576</v>
       </c>
@@ -37562,7 +37560,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>586</v>
       </c>
@@ -37578,7 +37576,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>596</v>
       </c>
@@ -37594,7 +37592,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>606</v>
       </c>
@@ -37610,7 +37608,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>616</v>
       </c>
@@ -37626,7 +37624,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>626</v>
       </c>
@@ -37642,7 +37640,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>636</v>
       </c>
@@ -37658,7 +37656,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>646</v>
       </c>
@@ -37674,7 +37672,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>656</v>
       </c>
@@ -37690,7 +37688,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>666</v>
       </c>
@@ -37713,22 +37711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -37745,7 +37743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -37765,7 +37763,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -37785,7 +37783,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -37805,7 +37803,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -37825,7 +37823,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -37845,7 +37843,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -37865,7 +37863,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -37885,7 +37883,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -37905,7 +37903,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -37925,7 +37923,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -37945,7 +37943,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -37965,7 +37963,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -37985,7 +37983,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -38005,7 +38003,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -38025,7 +38023,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -38045,7 +38043,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -38065,7 +38063,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -38085,7 +38083,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -38105,7 +38103,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -38125,7 +38123,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -38145,7 +38143,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -38165,7 +38163,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -38185,7 +38183,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -38205,7 +38203,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -38225,7 +38223,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -38245,7 +38243,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -38265,7 +38263,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -38285,7 +38283,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -38305,7 +38303,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -38325,7 +38323,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -38345,7 +38343,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -38365,7 +38363,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -38385,7 +38383,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -38405,7 +38403,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -38425,7 +38423,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -38445,7 +38443,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -38465,7 +38463,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -38485,7 +38483,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -38505,7 +38503,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -38532,24 +38530,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -38566,7 +38564,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>288</v>
       </c>
@@ -38584,16 +38582,16 @@
         <f xml:space="preserve"> -7.91778E-15*A2^5 + 0.0000000000205132*A2^4 - 0.000000021081*A2^3 + 0.000010752*A2^2 - 0.00272677*A2^1 + 0.276215</f>
         <v>4.5757686108190976E-3</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="38">
         <v>680.56707739527815</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="39">
         <f xml:space="preserve"> -7.91778E-15*F2^5 + 0.0000000000205132*F2^4 - 0.000000021081*F2^3 + 0.000010752*F2^2 - 0.00272677*F2^1 + 0.276215</f>
         <v>1.9403367801373861E-12</v>
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>298</v>
       </c>
@@ -38613,7 +38611,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>308</v>
       </c>
@@ -38633,7 +38631,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>318</v>
       </c>
@@ -38653,7 +38651,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>328</v>
       </c>
@@ -38673,7 +38671,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>338</v>
       </c>
@@ -38693,7 +38691,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>348</v>
       </c>
@@ -38713,7 +38711,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>358</v>
       </c>
@@ -38733,7 +38731,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>368</v>
       </c>
@@ -38753,7 +38751,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>378</v>
       </c>
@@ -38773,7 +38771,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>388</v>
       </c>
@@ -38793,7 +38791,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>398</v>
       </c>
@@ -38813,7 +38811,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>408</v>
       </c>
@@ -38833,7 +38831,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>418</v>
       </c>
@@ -38853,7 +38851,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>428</v>
       </c>
@@ -38873,7 +38871,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>438</v>
       </c>
@@ -38893,7 +38891,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>448</v>
       </c>
@@ -38913,7 +38911,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>458</v>
       </c>
@@ -38933,7 +38931,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>468</v>
       </c>
@@ -38953,7 +38951,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>478</v>
       </c>
@@ -38973,7 +38971,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>488</v>
       </c>
@@ -38993,7 +38991,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>498</v>
       </c>
@@ -39013,7 +39011,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>508</v>
       </c>
@@ -39033,7 +39031,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>518</v>
       </c>
@@ -39053,7 +39051,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>528</v>
       </c>
@@ -39073,7 +39071,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>538</v>
       </c>
@@ -39093,7 +39091,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>548</v>
       </c>
@@ -39113,7 +39111,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>558</v>
       </c>
@@ -39133,7 +39131,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>568</v>
       </c>
@@ -39153,7 +39151,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>578</v>
       </c>
@@ -39173,7 +39171,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>588</v>
       </c>
@@ -39193,7 +39191,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>598</v>
       </c>
@@ -39213,7 +39211,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>608</v>
       </c>
@@ -39233,7 +39231,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>618</v>
       </c>
@@ -39253,7 +39251,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>628</v>
       </c>
@@ -39273,7 +39271,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>638</v>
       </c>
@@ -39293,7 +39291,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>648</v>
       </c>
@@ -39313,7 +39311,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>658</v>
       </c>
@@ -39333,7 +39331,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>668</v>
       </c>
@@ -39353,7 +39351,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>658</v>
       </c>
@@ -39368,7 +39366,7 @@
         <v>1.8008104822408999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>668</v>
       </c>
@@ -39383,7 +39381,7 @@
         <v>1.2283596534612418E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>680</v>
       </c>
@@ -39392,7 +39390,7 @@
         <v>7.0170280962456033E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>681</v>
       </c>
@@ -39401,7 +39399,7 @@
         <v>-5.4610808229993424E-6</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>698</v>
       </c>
@@ -39410,7 +39408,7 @@
         <v>-3.0196531523418724E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>708</v>
       </c>
@@ -39419,7 +39417,7 @@
         <v>-5.6754589521978982E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>718</v>
       </c>
@@ -39428,7 +39426,7 @@
         <v>-9.1901084093992669E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>728</v>
       </c>
@@ -39437,7 +39435,7 @@
         <v>-1.3733453847138977E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>738</v>
       </c>
@@ -39446,7 +39444,7 @@
         <v>-1.9494335501099025E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>748</v>
       </c>
@@ -39455,7 +39453,7 @@
         <v>-2.6681531652995583E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>758</v>
       </c>
@@ -39464,7 +39462,7 @@
         <v>-3.552470876433067E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>768</v>
       </c>
@@ -39473,7 +39471,7 @@
         <v>-4.6275371609750815E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>778</v>
       </c>
@@ -39482,7 +39480,7 @@
         <v>-5.9207813410858678E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>788</v>
       </c>
@@ -39491,7 +39489,7 @@
         <v>-7.4620065969744909E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>798</v>
       </c>
@@ -39500,7 +39498,7 @@
         <v>-9.2834849802555519E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>808</v>
       </c>
@@ -39509,7 +39507,7 @@
         <v>-1.1420052427312588E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>818</v>
       </c>
@@ -39518,7 +39516,7 @@
         <v>-1.3909203772656142E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>828</v>
       </c>
@@ -39527,7 +39525,7 @@
         <v>-1.6791187762286275E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>838</v>
       </c>
@@ -39536,7 +39534,7 @@
         <v>-2.0109102067047968E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>848</v>
       </c>
@@ -39545,7 +39543,7 @@
         <v>-2.3908988295998967E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>858</v>
       </c>
@@ -39554,7 +39552,7 @@
         <v>-2.8239927009761634E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>868</v>
       </c>
@@ -39563,7 +39561,7 @@
         <v>-3.3154132733885455E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>878</v>
       </c>
@@ -39572,7 +39570,7 @@
         <v>-3.8707048972213998E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>888</v>
       </c>
@@ -39581,7 +39579,7 @@
         <v>-4.495744322023143E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>898</v>
       </c>
@@ -39590,7 +39588,7 @@
         <v>-5.1967501978429476E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>908</v>
       </c>
@@ -39599,7 +39597,7 @@
         <v>-5.9802925765678805E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>918</v>
       </c>
@@ -39608,7 +39606,7 @@
         <v>-6.853302413256579E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>928</v>
       </c>
@@ -39617,7 +39615,7 @@
         <v>-7.8230810674767448E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>938</v>
       </c>
@@ -39626,7 +39624,7 @@
         <v>-8.8973098046420174E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>948</v>
       </c>
@@ -39635,7 +39633,7 @@
         <v>-0.10084059297344672</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>958</v>
       </c>
@@ -39644,7 +39642,7 @@
         <v>-0.11391799126696001</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>968</v>
       </c>
@@ -39653,7 +39651,7 @@
         <v>-0.12829407283659056</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>978</v>
       </c>
@@ -39662,7 +39660,7 @@
         <v>-0.14406179670385433</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>988</v>
       </c>
@@ -39671,7 +39669,7 @@
         <v>-0.16131839601551434</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>998</v>
       </c>
@@ -39687,23 +39685,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -39720,12 +39718,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>288</v>
       </c>
       <c r="B2" s="15">
-        <f t="shared" ref="B2:B40" si="0">A2-273.15</f>
+        <f t="shared" ref="B2:B58" si="0">A2-273.15</f>
         <v>14.850000000000023</v>
       </c>
       <c r="C2" s="15">
@@ -39740,7 +39738,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>298</v>
       </c>
@@ -39755,12 +39753,12 @@
         <v>15000000</v>
       </c>
       <c r="E3" s="24">
-        <f t="shared" ref="E3:E40" si="1" xml:space="preserve"> 1.80339E-18*A3^5 - 3.82962E-15*A3^4 + 0.00000000000671676*A3^3 - 0.000000179349*A3^2 + 0.0000100259*A3^1 + 0.14862</f>
+        <f t="shared" ref="E3:E58" si="1" xml:space="preserve"> 1.80339E-18*A3^5 - 3.82962E-15*A3^4 + 0.00000000000671676*A3^3 - 0.000000179349*A3^2 + 0.0000100259*A3^1 + 0.14862</f>
         <v>0.13583259633867581</v>
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>308</v>
       </c>
@@ -39780,7 +39778,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>318</v>
       </c>
@@ -39800,7 +39798,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>328</v>
       </c>
@@ -39820,7 +39818,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>338</v>
       </c>
@@ -39840,7 +39838,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>348</v>
       </c>
@@ -39860,7 +39858,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>358</v>
       </c>
@@ -39880,7 +39878,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>368</v>
       </c>
@@ -39900,7 +39898,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>378</v>
       </c>
@@ -39920,7 +39918,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>388</v>
       </c>
@@ -39940,7 +39938,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>398</v>
       </c>
@@ -39963,7 +39961,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>408</v>
       </c>
@@ -39983,7 +39981,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>418</v>
       </c>
@@ -40003,7 +40001,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>428</v>
       </c>
@@ -40023,7 +40021,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>438</v>
       </c>
@@ -40043,7 +40041,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>448</v>
       </c>
@@ -40063,7 +40061,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>458</v>
       </c>
@@ -40083,7 +40081,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>468</v>
       </c>
@@ -40103,7 +40101,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>478</v>
       </c>
@@ -40123,7 +40121,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>488</v>
       </c>
@@ -40143,7 +40141,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>498</v>
       </c>
@@ -40163,7 +40161,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>508</v>
       </c>
@@ -40183,7 +40181,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>518</v>
       </c>
@@ -40203,7 +40201,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>528</v>
       </c>
@@ -40223,7 +40221,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>538</v>
       </c>
@@ -40243,7 +40241,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>548</v>
       </c>
@@ -40263,7 +40261,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>558</v>
       </c>
@@ -40283,7 +40281,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>568</v>
       </c>
@@ -40303,7 +40301,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>578</v>
       </c>
@@ -40323,7 +40321,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>588</v>
       </c>
@@ -40343,7 +40341,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>598</v>
       </c>
@@ -40363,7 +40361,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>608</v>
       </c>
@@ -40383,7 +40381,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>618</v>
       </c>
@@ -40403,7 +40401,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>628</v>
       </c>
@@ -40423,7 +40421,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>638</v>
       </c>
@@ -40443,7 +40441,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>648</v>
       </c>
@@ -40463,7 +40461,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>658</v>
       </c>
@@ -40483,7 +40481,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>668</v>
       </c>
@@ -40503,15 +40501,243 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="42">
+        <v>678</v>
+      </c>
+      <c r="B41" s="43">
+        <f t="shared" si="0"/>
+        <v>404.85</v>
+      </c>
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
-      <c r="E41" s="24"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E41" s="24">
+        <f t="shared" si="1"/>
+        <v>7.4516211558000492E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="42">
+        <v>688</v>
+      </c>
+      <c r="B42" s="43">
+        <f t="shared" si="0"/>
+        <v>414.85</v>
+      </c>
       <c r="C42" s="15"/>
       <c r="D42" s="12"/>
-      <c r="E42" s="24"/>
+      <c r="E42" s="24">
+        <f t="shared" si="1"/>
+        <v>7.2231378674961016E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="42">
+        <v>698</v>
+      </c>
+      <c r="B43" s="43">
+        <f t="shared" si="0"/>
+        <v>424.85</v>
+      </c>
+      <c r="E43" s="24">
+        <f t="shared" si="1"/>
+        <v>6.9912448031149779E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="42">
+        <v>708</v>
+      </c>
+      <c r="B44" s="43">
+        <f t="shared" si="0"/>
+        <v>434.85</v>
+      </c>
+      <c r="E44" s="44">
+        <f t="shared" si="1"/>
+        <v>6.7559448200166683E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="42">
+        <v>718</v>
+      </c>
+      <c r="B45" s="43">
+        <f t="shared" si="0"/>
+        <v>444.85</v>
+      </c>
+      <c r="E45" s="44">
+        <f t="shared" si="1"/>
+        <v>6.5172408347022301E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="42">
+        <v>728</v>
+      </c>
+      <c r="B46" s="43">
+        <f t="shared" si="0"/>
+        <v>454.85</v>
+      </c>
+      <c r="E46" s="44">
+        <f t="shared" si="1"/>
+        <v>6.2751358249778511E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="42">
+        <v>738</v>
+      </c>
+      <c r="B47" s="43">
+        <f t="shared" si="0"/>
+        <v>464.85</v>
+      </c>
+      <c r="E47" s="44">
+        <f t="shared" si="1"/>
+        <v>6.0296328321189252E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="42">
+        <v>748</v>
+      </c>
+      <c r="B48" s="43">
+        <f t="shared" si="0"/>
+        <v>474.85</v>
+      </c>
+      <c r="E48" s="44">
+        <f t="shared" si="1"/>
+        <v>5.7807349630341134E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="42">
+        <v>758</v>
+      </c>
+      <c r="B49" s="43">
+        <f t="shared" si="0"/>
+        <v>484.85</v>
+      </c>
+      <c r="E49" s="44">
+        <f t="shared" si="1"/>
+        <v>5.5284453924294166E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="42">
+        <v>768</v>
+      </c>
+      <c r="B50" s="43">
+        <f t="shared" si="0"/>
+        <v>494.85</v>
+      </c>
+      <c r="E50" s="44">
+        <f t="shared" si="1"/>
+        <v>5.2727673649722445E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="42">
+        <v>778</v>
+      </c>
+      <c r="B51" s="43">
+        <f t="shared" si="0"/>
+        <v>504.85</v>
+      </c>
+      <c r="E51" s="44">
+        <f t="shared" si="1"/>
+        <v>5.0137041974554777E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="42">
+        <v>788</v>
+      </c>
+      <c r="B52" s="43">
+        <f t="shared" si="0"/>
+        <v>514.85</v>
+      </c>
+      <c r="E52" s="44">
+        <f t="shared" si="1"/>
+        <v>4.7512592809615437E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="42">
+        <v>798</v>
+      </c>
+      <c r="B53" s="43">
+        <f t="shared" si="0"/>
+        <v>524.85</v>
+      </c>
+      <c r="E53" s="44">
+        <f t="shared" si="1"/>
+        <v>4.4854360830264714E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="42">
+        <v>808</v>
+      </c>
+      <c r="B54" s="43">
+        <f t="shared" si="0"/>
+        <v>534.85</v>
+      </c>
+      <c r="E54" s="44">
+        <f t="shared" si="1"/>
+        <v>4.2162381498039775E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="42">
+        <v>818</v>
+      </c>
+      <c r="B55" s="43">
+        <f t="shared" si="0"/>
+        <v>544.85</v>
+      </c>
+      <c r="E55" s="44">
+        <f t="shared" si="1"/>
+        <v>3.9436691082295222E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="42">
+        <v>828</v>
+      </c>
+      <c r="B56" s="43">
+        <f t="shared" si="0"/>
+        <v>554.85</v>
+      </c>
+      <c r="E56" s="44">
+        <f t="shared" si="1"/>
+        <v>3.6677326681843786E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="42">
+        <v>838</v>
+      </c>
+      <c r="B57" s="43">
+        <f t="shared" si="0"/>
+        <v>564.85</v>
+      </c>
+      <c r="E57" s="44">
+        <f t="shared" si="1"/>
+        <v>3.3884326246596999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="42">
+        <v>900</v>
+      </c>
+      <c r="B58" s="43">
+        <f t="shared" si="0"/>
+        <v>626.85</v>
+      </c>
+      <c r="E58" s="44">
+        <f t="shared" si="1"/>
+        <v>1.5819408119099987E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40520,23 +40746,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -40553,7 +40779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -40573,7 +40799,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -40593,7 +40819,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -40613,7 +40839,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -40633,7 +40859,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -40653,7 +40879,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -40673,7 +40899,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -40693,7 +40919,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -40713,7 +40939,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -40733,7 +40959,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -40753,7 +40979,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -40773,7 +40999,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -40796,7 +41022,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -40816,7 +41042,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -40836,7 +41062,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -40856,7 +41082,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -40876,7 +41102,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -40896,7 +41122,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -40916,7 +41142,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -40936,7 +41162,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -40956,7 +41182,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -40976,7 +41202,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -40996,7 +41222,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -41016,7 +41242,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -41036,7 +41262,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -41056,7 +41282,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -41076,7 +41302,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -41096,7 +41322,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -41116,7 +41342,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -41136,7 +41362,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -41156,7 +41382,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -41176,7 +41402,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -41196,7 +41422,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -41216,7 +41442,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -41236,7 +41462,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -41256,7 +41482,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -41276,7 +41502,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -41296,7 +41522,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -41316,7 +41542,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -41336,12 +41562,12 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
       <c r="E41" s="24"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
       <c r="D42" s="12"/>
       <c r="E42" s="24"/>
@@ -41353,25 +41579,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -41400,7 +41626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>286</v>
       </c>
@@ -41442,7 +41668,7 @@
         <v>-1.3300083810463548E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>296</v>
       </c>
@@ -41481,7 +41707,7 @@
         <v>12.831826587536</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>306</v>
       </c>
@@ -41516,7 +41742,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>316</v>
       </c>
@@ -41551,7 +41777,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>326</v>
       </c>
@@ -41586,7 +41812,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>336</v>
       </c>
@@ -41621,7 +41847,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>346</v>
       </c>
@@ -41656,7 +41882,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>356</v>
       </c>
@@ -41691,7 +41917,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>366</v>
       </c>
@@ -41726,7 +41952,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>376</v>
       </c>
@@ -41761,7 +41987,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>386</v>
       </c>
@@ -41796,7 +42022,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>396</v>
       </c>
@@ -41831,7 +42057,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>406</v>
       </c>
@@ -41866,7 +42092,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>416</v>
       </c>
@@ -41901,7 +42127,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>426</v>
       </c>
@@ -41936,7 +42162,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>436</v>
       </c>
@@ -41971,7 +42197,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>446</v>
       </c>
@@ -42006,7 +42232,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>456</v>
       </c>
@@ -42041,7 +42267,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>466</v>
       </c>
@@ -42076,7 +42302,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>476</v>
       </c>
@@ -42111,7 +42337,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>486</v>
       </c>
@@ -42146,7 +42372,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>496</v>
       </c>
@@ -42181,7 +42407,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>506</v>
       </c>
@@ -42216,7 +42442,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>516</v>
       </c>
@@ -42251,7 +42477,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>526</v>
       </c>
@@ -42286,7 +42512,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>536</v>
       </c>
@@ -42321,7 +42547,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>546</v>
       </c>
@@ -42356,7 +42582,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>556</v>
       </c>
@@ -42391,7 +42617,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>566</v>
       </c>
@@ -42426,7 +42652,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>576</v>
       </c>
@@ -42461,7 +42687,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>586</v>
       </c>
@@ -42496,7 +42722,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>596</v>
       </c>
@@ -42531,7 +42757,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>606</v>
       </c>
@@ -42566,7 +42792,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>616</v>
       </c>
@@ -42601,7 +42827,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>626</v>
       </c>
@@ -42636,7 +42862,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>636</v>
       </c>
@@ -42671,7 +42897,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>646</v>
       </c>
@@ -42706,7 +42932,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>656</v>
       </c>
@@ -42741,7 +42967,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>666</v>
       </c>
@@ -42783,23 +43009,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -42816,7 +43042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -42836,7 +43062,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -42856,7 +43082,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -42876,7 +43102,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -42896,7 +43122,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -42916,7 +43142,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -42936,7 +43162,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -42956,7 +43182,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -42976,7 +43202,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -42996,7 +43222,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -43016,7 +43242,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -43036,7 +43262,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -43056,7 +43282,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -43076,7 +43302,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -43096,7 +43322,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -43116,7 +43342,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -43136,7 +43362,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -43156,7 +43382,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -43176,7 +43402,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -43196,7 +43422,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -43216,7 +43442,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -43236,7 +43462,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -43256,7 +43482,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -43276,7 +43502,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -43296,7 +43522,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -43316,7 +43542,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -43336,7 +43562,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -43356,7 +43582,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -43376,7 +43602,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -43396,7 +43622,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -43416,7 +43642,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -43436,7 +43662,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -43456,7 +43682,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -43476,7 +43702,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -43496,7 +43722,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -43516,7 +43742,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -43536,7 +43762,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -43556,7 +43782,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -43576,7 +43802,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -43603,23 +43829,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>24</v>
       </c>
@@ -43636,7 +43862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>288</v>
       </c>
@@ -43656,7 +43882,7 @@
       </c>
       <c r="P2" s="5"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>298</v>
       </c>
@@ -43676,7 +43902,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>308</v>
       </c>
@@ -43696,7 +43922,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>318</v>
       </c>
@@ -43716,7 +43942,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>328</v>
       </c>
@@ -43736,7 +43962,7 @@
       </c>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>338</v>
       </c>
@@ -43756,7 +43982,7 @@
       </c>
       <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>348</v>
       </c>
@@ -43776,7 +44002,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>358</v>
       </c>
@@ -43796,7 +44022,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>368</v>
       </c>
@@ -43816,7 +44042,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>378</v>
       </c>
@@ -43836,7 +44062,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>388</v>
       </c>
@@ -43856,7 +44082,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>398</v>
       </c>
@@ -43876,7 +44102,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>408</v>
       </c>
@@ -43896,7 +44122,7 @@
       </c>
       <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>418</v>
       </c>
@@ -43916,7 +44142,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>428</v>
       </c>
@@ -43936,7 +44162,7 @@
       </c>
       <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>438</v>
       </c>
@@ -43956,7 +44182,7 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>448</v>
       </c>
@@ -43976,7 +44202,7 @@
       </c>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>458</v>
       </c>
@@ -43996,7 +44222,7 @@
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>468</v>
       </c>
@@ -44016,7 +44242,7 @@
       </c>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>478</v>
       </c>
@@ -44036,7 +44262,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>488</v>
       </c>
@@ -44056,7 +44282,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>498</v>
       </c>
@@ -44076,7 +44302,7 @@
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>508</v>
       </c>
@@ -44096,7 +44322,7 @@
       </c>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>518</v>
       </c>
@@ -44116,7 +44342,7 @@
       </c>
       <c r="P25" s="5"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>528</v>
       </c>
@@ -44136,7 +44362,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>538</v>
       </c>
@@ -44156,7 +44382,7 @@
       </c>
       <c r="P27" s="5"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>548</v>
       </c>
@@ -44176,7 +44402,7 @@
       </c>
       <c r="P28" s="5"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>558</v>
       </c>
@@ -44196,7 +44422,7 @@
       </c>
       <c r="P29" s="5"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>568</v>
       </c>
@@ -44216,7 +44442,7 @@
       </c>
       <c r="P30" s="5"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>578</v>
       </c>
@@ -44236,7 +44462,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>588</v>
       </c>
@@ -44256,7 +44482,7 @@
       </c>
       <c r="P32" s="5"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>598</v>
       </c>
@@ -44276,7 +44502,7 @@
       </c>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>608</v>
       </c>
@@ -44296,7 +44522,7 @@
       </c>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>618</v>
       </c>
@@ -44316,7 +44542,7 @@
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>628</v>
       </c>
@@ -44336,7 +44562,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>638</v>
       </c>
@@ -44356,7 +44582,7 @@
       </c>
       <c r="P37" s="5"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>648</v>
       </c>
@@ -44376,7 +44602,7 @@
       </c>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>658</v>
       </c>
@@ -44396,7 +44622,7 @@
       </c>
       <c r="P39" s="5"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>668</v>
       </c>
@@ -44416,7 +44642,7 @@
       </c>
       <c r="P40" s="5"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>658</v>
       </c>
@@ -44431,7 +44657,7 @@
         <v>2.5500954017743105E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>668</v>
       </c>
